--- a/docs/BOM_191002.xlsx
+++ b/docs/BOM_191002.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kris\Documents\git\gridtapebranch\GridTapeStage\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DEA684-AAFE-4829-A173-DDB0BC4913FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4831721-CC0A-4D4A-BB4F-91373DFE5CA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18624" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Reel housing" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$I$1:$I$1006</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$I$1:$I$1004</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -219,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="K91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -322,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="568">
   <si>
     <t>Part name</t>
   </si>
@@ -750,9 +750,6 @@
     <t>slip clutch shaft</t>
   </si>
   <si>
-    <t>shaft_adapter_5mm_1f4in</t>
-  </si>
-  <si>
     <t>8974k28</t>
   </si>
   <si>
@@ -1884,48 +1881,12 @@
     <t>slip clutch timing belt pulley</t>
   </si>
   <si>
-    <t>1/8 MXL 20 tooth 1/4 bore</t>
-  </si>
-  <si>
-    <t>1375K21</t>
-  </si>
-  <si>
-    <t>http://www.mcmaster.com/#1375K21</t>
-  </si>
-  <si>
     <t>pinch drive timing belt</t>
   </si>
   <si>
     <t>reel drive timing belt</t>
   </si>
   <si>
-    <t>slip clutch slip washers</t>
-  </si>
-  <si>
-    <t>2797T1</t>
-  </si>
-  <si>
-    <t>http://www.mcmaster.com/#2797T1</t>
-  </si>
-  <si>
-    <t>slip clutch spring washers</t>
-  </si>
-  <si>
-    <t>9714K28</t>
-  </si>
-  <si>
-    <t>http://www.mcmaster.com/#9714K28</t>
-  </si>
-  <si>
-    <t>slip clutch shaft coller</t>
-  </si>
-  <si>
-    <t>6157K12</t>
-  </si>
-  <si>
-    <t>http://www.mcmaster.com/#6157K12</t>
-  </si>
-  <si>
     <t>tape camera</t>
   </si>
   <si>
@@ -2035,6 +1996,36 @@
   </si>
   <si>
     <t>Harwin crimps</t>
+  </si>
+  <si>
+    <t>reel_drive_clamp_slipclutch</t>
+  </si>
+  <si>
+    <t>1/8 MXL 18 tooth 3/16 bore</t>
+  </si>
+  <si>
+    <t>1375K17</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/1375K17/</t>
+  </si>
+  <si>
+    <t>shaft_adapter_slipclutch</t>
+  </si>
+  <si>
+    <t>slip clutch</t>
+  </si>
+  <si>
+    <t>https://shop.sdp-si.com/catalog/product/?id=S98CA6-MEC160417</t>
+  </si>
+  <si>
+    <t>S98CA6-MEC160417</t>
+  </si>
+  <si>
+    <t>0.25" Bore Adjustable Slip Clutch with Torque Range of .3 to 32 OZ-IN</t>
+  </si>
+  <si>
+    <t>SDP/SI</t>
   </si>
 </sst>
 </file>
@@ -2045,7 +2036,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2118,27 +2109,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2167,7 +2137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2194,11 +2164,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2640,13 +2606,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W104"/>
+  <dimension ref="A1:W103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A85" sqref="A85"/>
+      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3497,7 +3463,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>137</v>
+        <v>558</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>131</v>
@@ -3526,11 +3492,11 @@
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>142</v>
+      <c r="C26" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>562</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>131</v>
@@ -3542,7 +3508,7 @@
         <v>33</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>35</v>
@@ -3554,7 +3520,7 @@
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
@@ -3563,26 +3529,26 @@
         <v>79</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N27" s="1">
         <v>11.63</v>
@@ -3591,20 +3557,20 @@
         <v>50</v>
       </c>
       <c r="P27">
-        <f t="shared" ref="P27:P97" si="1">N27/O27</f>
+        <f t="shared" ref="P27:P95" si="1">N27/O27</f>
         <v>0.23260000000000003</v>
       </c>
       <c r="Q27">
         <v>1</v>
       </c>
       <c r="R27">
-        <f t="shared" ref="R27:R97" si="2">Q27*N27</f>
+        <f t="shared" ref="R27:R95" si="2">Q27*N27</f>
         <v>11.63</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B28" s="1">
         <v>1</v>
@@ -3613,29 +3579,29 @@
         <v>30</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N28" s="1">
         <v>4.75</v>
@@ -3657,7 +3623,7 @@
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -3666,26 +3632,26 @@
         <v>30</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N29" s="1">
         <v>10.76</v>
@@ -3707,7 +3673,7 @@
     </row>
     <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -3716,26 +3682,26 @@
         <v>30</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N30" s="1">
         <v>10.49</v>
@@ -3757,7 +3723,7 @@
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B31" s="1">
         <v>6</v>
@@ -3766,29 +3732,29 @@
         <v>94</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N31" s="1">
         <v>10.76</v>
@@ -3810,7 +3776,7 @@
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -3819,29 +3785,29 @@
         <v>79</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N32" s="1">
         <v>11.25</v>
@@ -3861,12 +3827,12 @@
         <v>11.25</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B33" s="1">
         <v>4</v>
@@ -3875,29 +3841,29 @@
         <v>118</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N33" s="1">
         <v>7.94</v>
@@ -3925,7 +3891,7 @@
     </row>
     <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B34" s="1">
         <v>2</v>
@@ -3934,29 +3900,29 @@
         <v>94</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N34" s="1">
         <v>2.23</v>
@@ -3984,7 +3950,7 @@
     </row>
     <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B35" s="1">
         <v>2</v>
@@ -3993,26 +3959,26 @@
         <v>30</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N35" s="1">
         <v>8.25</v>
@@ -4040,7 +4006,7 @@
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" s="1">
         <v>3</v>
@@ -4049,26 +4015,26 @@
         <v>30</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L36">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N36" s="1">
         <v>8.25</v>
@@ -4096,7 +4062,7 @@
     </row>
     <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B37" s="1">
         <v>1</v>
@@ -4105,26 +4071,26 @@
         <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L37">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N37" s="1">
         <v>75</v>
@@ -4152,7 +4118,7 @@
     </row>
     <row r="38" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" s="1">
         <v>2</v>
@@ -4161,26 +4127,26 @@
         <v>30</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N38" s="1">
         <v>9.3000000000000007</v>
@@ -4208,7 +4174,7 @@
     </row>
     <row r="39" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -4217,26 +4183,26 @@
         <v>30</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L39">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N39" s="1">
         <v>21.8</v>
@@ -4264,7 +4230,7 @@
     </row>
     <row r="40" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B40" s="1">
         <v>1</v>
@@ -4273,26 +4239,26 @@
         <v>30</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L40">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N40" s="1">
         <v>9.3000000000000007</v>
@@ -4320,7 +4286,7 @@
     </row>
     <row r="41" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -4329,26 +4295,26 @@
         <v>30</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N41" s="1">
         <v>9.3000000000000007</v>
@@ -4376,7 +4342,7 @@
     </row>
     <row r="42" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B42" s="1">
         <v>3</v>
@@ -4385,26 +4351,26 @@
         <v>94</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L42">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N42" s="1">
         <v>100</v>
@@ -4432,7 +4398,7 @@
     </row>
     <row r="43" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B43" s="1">
         <v>3</v>
@@ -4441,26 +4407,26 @@
         <v>94</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="L43">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="N43" s="1">
         <v>8.25</v>
@@ -4488,7 +4454,7 @@
     </row>
     <row r="44" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
@@ -4497,26 +4463,26 @@
         <v>94</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L44">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N44" s="1">
         <v>6.5</v>
@@ -4544,7 +4510,7 @@
     </row>
     <row r="45" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
@@ -4553,26 +4519,26 @@
         <v>94</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L45">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="N45" s="1">
         <v>18.600000000000001</v>
@@ -4600,7 +4566,7 @@
     </row>
     <row r="46" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -4609,29 +4575,29 @@
         <v>53</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N46" s="1">
         <v>7.34</v>
@@ -4653,7 +4619,7 @@
     </row>
     <row r="47" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B47" s="1">
         <v>4</v>
@@ -4662,26 +4628,26 @@
         <v>53</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N47" s="1">
         <v>9.01</v>
@@ -4703,7 +4669,7 @@
     </row>
     <row r="48" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B48" s="1">
         <v>2</v>
@@ -4712,29 +4678,29 @@
         <v>53</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N48" s="1">
         <v>8.1199999999999992</v>
@@ -4762,7 +4728,7 @@
     </row>
     <row r="49" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B49" s="1">
         <v>4</v>
@@ -4771,29 +4737,29 @@
         <v>30</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L49">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N49" s="1">
         <v>5.35</v>
@@ -4821,7 +4787,7 @@
     </row>
     <row r="50" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B50" s="1">
         <v>4</v>
@@ -4830,26 +4796,26 @@
         <v>30</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L50">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N50" s="1">
         <v>8.6999999999999993</v>
@@ -4877,7 +4843,7 @@
     </row>
     <row r="51" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B51" s="1">
         <v>2</v>
@@ -4886,26 +4852,26 @@
         <v>30</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L51">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="N51" s="1">
         <v>4</v>
@@ -4929,7 +4895,7 @@
     </row>
     <row r="52" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B52" s="1">
         <v>4</v>
@@ -4938,26 +4904,26 @@
         <v>71</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L52">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N52" s="1">
         <v>9.6300000000000008</v>
@@ -4979,7 +4945,7 @@
     </row>
     <row r="53" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B53" s="1">
         <v>4</v>
@@ -4988,26 +4954,26 @@
         <v>30</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L53">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N53" s="1">
         <v>8.2100000000000009</v>
@@ -5035,7 +5001,7 @@
     </row>
     <row r="54" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B54" s="1">
         <v>4</v>
@@ -5044,26 +5010,26 @@
         <v>30</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L54">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N54" s="1">
         <v>10</v>
@@ -5085,7 +5051,7 @@
     </row>
     <row r="55" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B55" s="1">
         <v>4</v>
@@ -5094,26 +5060,26 @@
         <v>30</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="N55" s="1">
         <v>4.3600000000000003</v>
@@ -5135,7 +5101,7 @@
     </row>
     <row r="56" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B56" s="1">
         <v>16</v>
@@ -5144,26 +5110,26 @@
         <v>94</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N56" s="1">
         <v>3.35</v>
@@ -5191,7 +5157,7 @@
     </row>
     <row r="57" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B57" s="1">
         <v>16</v>
@@ -5200,26 +5166,26 @@
         <v>94</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L57">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N57" s="1">
         <v>4.38</v>
@@ -5247,7 +5213,7 @@
     </row>
     <row r="58" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B58" s="1">
         <v>2</v>
@@ -5256,26 +5222,26 @@
         <v>118</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N58" s="1">
         <v>4.3899999999999997</v>
@@ -5303,7 +5269,7 @@
     </row>
     <row r="59" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B59" s="1">
         <v>4</v>
@@ -5312,26 +5278,26 @@
         <v>118</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L59">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N59" s="1">
         <v>7.1</v>
@@ -5359,7 +5325,7 @@
     </row>
     <row r="60" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B60" s="1">
         <v>2</v>
@@ -5368,26 +5334,26 @@
         <v>131</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L60">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N60" s="1">
         <v>7.1</v>
@@ -5415,7 +5381,7 @@
     </row>
     <row r="61" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B61" s="1">
         <v>6</v>
@@ -5424,26 +5390,26 @@
         <v>131</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L61">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N61" s="1">
         <v>5.72</v>
@@ -5471,7 +5437,7 @@
     </row>
     <row r="62" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B62" s="1">
         <v>20</v>
@@ -5480,29 +5446,29 @@
         <v>94</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L62">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N62" s="1">
         <v>3.98</v>
@@ -5530,7 +5496,7 @@
     </row>
     <row r="63" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B63" s="1">
         <v>16</v>
@@ -5539,26 +5505,26 @@
         <v>94</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L63">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N63" s="1">
         <v>6.22</v>
@@ -5580,7 +5546,7 @@
     </row>
     <row r="64" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B64" s="1">
         <v>6</v>
@@ -5589,26 +5555,26 @@
         <v>94</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J64" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L64">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N64" s="1">
         <v>3.98</v>
@@ -5636,7 +5602,7 @@
     </row>
     <row r="65" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B65" s="1">
         <v>16</v>
@@ -5645,29 +5611,29 @@
         <v>94</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L65">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N65" s="1">
         <v>7.07</v>
@@ -5695,7 +5661,7 @@
     </row>
     <row r="66" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B66" s="1">
         <v>2</v>
@@ -5704,26 +5670,26 @@
         <v>131</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="L66">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N66" s="1">
         <v>4.21</v>
@@ -5751,7 +5717,7 @@
     </row>
     <row r="67" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B67" s="1">
         <v>2</v>
@@ -5760,26 +5726,26 @@
         <v>79</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L67">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N67" s="1">
         <v>7.23</v>
@@ -5801,7 +5767,7 @@
     </row>
     <row r="68" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B68" s="1">
         <v>1</v>
@@ -5810,26 +5776,26 @@
         <v>79</v>
       </c>
       <c r="F68" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H68" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>456</v>
-      </c>
       <c r="I68" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="L68">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N68" s="1">
         <v>1.97</v>
@@ -5857,35 +5823,35 @@
     </row>
     <row r="69" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B69" s="1">
         <v>4</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="H69" s="1" t="s">
+      <c r="I69" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J69" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J69" s="1" t="s">
+      <c r="K69" s="12" t="s">
         <v>462</v>
-      </c>
-      <c r="K69" s="12" t="s">
-        <v>463</v>
       </c>
       <c r="L69">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M69" s="13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N69" s="1">
         <v>37.99</v>
@@ -5922,26 +5888,26 @@
         <v>53</v>
       </c>
       <c r="F70" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H70" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>466</v>
-      </c>
       <c r="I70" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J70" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="L70">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="N70" s="1">
         <v>7</v>
@@ -5961,7 +5927,7 @@
         <v>14</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T70" s="1">
         <v>160205</v>
@@ -5969,7 +5935,7 @@
     </row>
     <row r="71" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B71" s="1">
         <v>4</v>
@@ -5978,17 +5944,17 @@
         <v>94</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K71" s="1">
         <v>103073</v>
@@ -5997,7 +5963,7 @@
         <v>8</v>
       </c>
       <c r="M71" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N71" s="1">
         <v>600</v>
@@ -6025,7 +5991,7 @@
     </row>
     <row r="72" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
@@ -6034,26 +6000,26 @@
         <v>44</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H72" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72:L73" si="3">B72*2</f>
         <v>2</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N72" s="1">
         <f>18105 / 2</f>
@@ -6082,35 +6048,35 @@
     </row>
     <row r="73" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B73" s="1">
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J73" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K73" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="L73">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N73" s="1">
         <v>9.9499999999999993</v>
@@ -6132,34 +6098,34 @@
     </row>
     <row r="74" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B74" s="1">
         <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H74" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="L74" s="1">
         <v>1</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N74" s="1">
         <v>4.95</v>
@@ -6181,35 +6147,35 @@
     </row>
     <row r="75" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B75" s="1">
         <v>2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H75" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="K75" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="L75">
         <f t="shared" ref="L75:L78" si="4">B75*2</f>
         <v>4</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N75" s="1">
         <v>14.16</v>
@@ -6237,35 +6203,35 @@
     </row>
     <row r="76" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B76" s="1">
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H76" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="L76">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N76" s="1">
         <v>20.27</v>
@@ -6293,35 +6259,35 @@
     </row>
     <row r="77" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B77" s="1">
         <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H77" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K77" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="L77">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N77" s="1">
         <v>2.54</v>
@@ -6349,35 +6315,35 @@
     </row>
     <row r="78" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B78" s="1">
         <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H78" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="L78">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N78" s="1">
         <v>21.54</v>
@@ -6405,34 +6371,34 @@
     </row>
     <row r="79" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H79" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K79" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="L79" s="1">
         <v>1</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N79" s="1">
         <v>64.63</v>
@@ -6460,35 +6426,35 @@
     </row>
     <row r="80" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H80" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J80" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J80" s="1" t="s">
+      <c r="K80" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="L80">
+        <f t="shared" ref="L80:L100" si="5">B80*2</f>
+        <v>2</v>
+      </c>
+      <c r="M80" s="15" t="s">
         <v>508</v>
-      </c>
-      <c r="L80">
-        <f t="shared" ref="L80:L102" si="5">B80*2</f>
-        <v>2</v>
-      </c>
-      <c r="M80" s="15" t="s">
-        <v>509</v>
       </c>
       <c r="N80" s="1">
         <v>102.14</v>
@@ -6508,7 +6474,7 @@
         <v>204.28</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T80" s="1">
         <v>160208</v>
@@ -6516,35 +6482,35 @@
     </row>
     <row r="81" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H81" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="L81">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M81" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N81" s="1">
         <v>70.11</v>
@@ -6564,7 +6530,7 @@
         <v>140.22</v>
       </c>
       <c r="S81" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T81" s="1">
         <v>160208</v>
@@ -6572,7 +6538,7 @@
     </row>
     <row r="82" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B82" s="1">
         <v>4</v>
@@ -6581,26 +6547,26 @@
         <v>118</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L82">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N82" s="1">
         <v>5.71</v>
@@ -6628,7 +6594,7 @@
     </row>
     <row r="83" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B83" s="1">
         <v>2</v>
@@ -6637,26 +6603,26 @@
         <v>118</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J83" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L83">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N83" s="1">
         <v>9.81</v>
@@ -6684,35 +6650,35 @@
     </row>
     <row r="84" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B84" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>131</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L84">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="N84" s="1">
         <v>9.81</v>
@@ -6739,64 +6705,60 @@
       </c>
     </row>
     <row r="85" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>519</v>
+      <c r="A85" s="17" t="s">
+        <v>518</v>
       </c>
       <c r="B85" s="1">
-        <v>1</v>
-      </c>
-      <c r="E85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J85" s="1" t="s">
+      <c r="F85" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="H85" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="I85" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="J85" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K85" s="4" t="s">
-        <v>521</v>
+      <c r="K85" s="17" t="s">
+        <v>560</v>
       </c>
       <c r="L85">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>522</v>
+        <v>4</v>
+      </c>
+      <c r="M85" s="15" t="s">
+        <v>561</v>
       </c>
       <c r="N85" s="1">
-        <v>10.48</v>
+        <v>12.92</v>
       </c>
       <c r="O85" s="1">
         <v>1</v>
       </c>
       <c r="P85">
         <f t="shared" si="1"/>
-        <v>10.48</v>
+        <v>12.92</v>
       </c>
       <c r="Q85">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R85">
         <f t="shared" si="2"/>
-        <v>20.96</v>
-      </c>
-      <c r="S85" s="1">
-        <v>6448208</v>
-      </c>
-      <c r="T85" s="7">
-        <v>42451</v>
-      </c>
+        <v>51.68</v>
+      </c>
+      <c r="S85" s="1"/>
+      <c r="T85" s="7"/>
     </row>
     <row r="86" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B86" s="1">
         <v>1</v>
@@ -6805,26 +6767,26 @@
         <v>118</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L86">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N86" s="1">
         <v>2.39</v>
@@ -6852,7 +6814,7 @@
     </row>
     <row r="87" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B87" s="1">
         <v>1</v>
@@ -6861,26 +6823,26 @@
         <v>131</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L87">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M87" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N87" s="1">
         <v>2.5099999999999998</v>
@@ -6906,188 +6868,163 @@
         <v>42451</v>
       </c>
     </row>
-    <row r="88" spans="1:20" s="19" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
-        <v>525</v>
-      </c>
-      <c r="B88" s="18">
-        <v>4</v>
-      </c>
-      <c r="E88" s="18" t="s">
+    <row r="88" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A88" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2</v>
+      </c>
+      <c r="E88" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F88" s="18" t="s">
-        <v>515</v>
-      </c>
-      <c r="I88" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="J88" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K88" s="18" t="s">
-        <v>526</v>
-      </c>
-      <c r="L88" s="19">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="M88" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="N88" s="18">
-        <v>1.31</v>
-      </c>
-      <c r="O88" s="18">
-        <v>1</v>
-      </c>
-      <c r="P88" s="19">
-        <f t="shared" si="1"/>
-        <v>1.31</v>
-      </c>
-      <c r="Q88" s="19">
-        <v>8</v>
-      </c>
-      <c r="R88" s="19">
-        <f t="shared" si="2"/>
-        <v>10.48</v>
-      </c>
-      <c r="S88" s="18">
-        <v>6448208</v>
-      </c>
-      <c r="T88" s="22">
-        <v>42451</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" s="19" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A89" s="18" t="s">
-        <v>528</v>
-      </c>
-      <c r="B89" s="18">
-        <v>2</v>
-      </c>
-      <c r="E89" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F89" s="18" t="s">
-        <v>515</v>
-      </c>
-      <c r="I89" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="J89" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K89" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="L89" s="19">
+      <c r="F88" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="H88" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="I88" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J88" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="L88">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M89" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="N89" s="18">
-        <v>14.24</v>
-      </c>
-      <c r="O89" s="18">
-        <v>25</v>
-      </c>
-      <c r="P89" s="19">
+      <c r="M88" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="N88" s="1">
+        <v>64.59</v>
+      </c>
+      <c r="O88" s="1">
+        <v>1</v>
+      </c>
+      <c r="P88">
         <f t="shared" si="1"/>
-        <v>0.5696</v>
-      </c>
-      <c r="Q89" s="19">
+        <v>64.59</v>
+      </c>
+      <c r="Q88">
+        <v>2</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="2"/>
+        <v>129.18</v>
+      </c>
+      <c r="S88" s="1"/>
+      <c r="T88" s="7"/>
+    </row>
+    <row r="89" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B89" s="1">
         <v>1</v>
       </c>
-      <c r="R89" s="19">
+      <c r="E89" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O89" s="1">
+        <v>1</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>2</v>
+      </c>
+      <c r="R89">
         <f t="shared" si="2"/>
-        <v>14.24</v>
-      </c>
-      <c r="S89" s="18">
-        <v>6448208</v>
-      </c>
-      <c r="T89" s="22">
-        <v>42451</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" s="19" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="B90" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B90" s="1">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="E90" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F90" s="18" t="s">
-        <v>515</v>
-      </c>
-      <c r="I90" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="J90" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K90" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="L90" s="19">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M90" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="N90" s="18">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="O90" s="18">
+      <c r="N90" s="1">
+        <v>0</v>
+      </c>
+      <c r="O90" s="1">
         <v>1</v>
       </c>
-      <c r="P90" s="19">
+      <c r="P90">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Q90" s="19">
-        <v>4</v>
-      </c>
-      <c r="R90" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <v>2</v>
+      </c>
+      <c r="R90">
         <f t="shared" si="2"/>
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="S90" s="18">
-        <v>6448208</v>
-      </c>
-      <c r="T90" s="22">
-        <v>42451</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>549</v>
+        <v>478</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K91" s="1"/>
       <c r="L91">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
       <c r="O91" s="1">
         <v>1</v>
       </c>
@@ -7102,487 +7039,408 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
     </row>
     <row r="92" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>548</v>
-      </c>
       <c r="E92" s="1" t="s">
-        <v>534</v>
+        <v>478</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>515</v>
+        <v>478</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>535</v>
+        <v>151</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>526</v>
       </c>
       <c r="L92">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="M92" s="3" t="s">
+        <v>527</v>
+      </c>
       <c r="N92" s="1">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="O92" s="1">
         <v>1</v>
       </c>
       <c r="P92">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="Q92">
         <v>2</v>
       </c>
       <c r="R92">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.68</v>
+      </c>
+      <c r="S92" s="1">
+        <v>6390515</v>
+      </c>
+      <c r="T92" s="1">
+        <v>160208</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B93" s="1">
         <v>1</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="K93" s="1"/>
+        <v>461</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>529</v>
+      </c>
       <c r="L93">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
+      <c r="M93" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="N93" s="1">
+        <v>16.989999999999998</v>
+      </c>
       <c r="O93" s="1">
         <v>1</v>
       </c>
       <c r="P93">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="Q93">
         <v>2</v>
       </c>
       <c r="R93">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S93" s="1"/>
-      <c r="T93" s="1"/>
+        <v>33.979999999999997</v>
+      </c>
+      <c r="S93" s="1">
+        <v>6390515</v>
+      </c>
+      <c r="T93" s="1">
+        <v>160208</v>
+      </c>
     </row>
     <row r="94" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B94" s="1">
         <v>1</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>479</v>
-      </c>
+      <c r="C94" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="L94">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>540</v>
-      </c>
       <c r="N94" s="1">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="O94" s="1">
         <v>1</v>
       </c>
       <c r="P94">
         <f t="shared" si="1"/>
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="Q94">
         <v>2</v>
       </c>
       <c r="R94">
         <f t="shared" si="2"/>
-        <v>4.68</v>
-      </c>
-      <c r="S94" s="1">
-        <v>6390515</v>
-      </c>
-      <c r="T94" s="1">
-        <v>160208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B95" s="1">
         <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="L95">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="N95" s="1">
-        <v>16.989999999999998</v>
+        <v>7.94</v>
       </c>
       <c r="O95" s="1">
         <v>1</v>
       </c>
       <c r="P95">
         <f t="shared" si="1"/>
-        <v>16.989999999999998</v>
+        <v>7.94</v>
       </c>
       <c r="Q95">
         <v>2</v>
       </c>
       <c r="R95">
         <f t="shared" si="2"/>
-        <v>33.979999999999997</v>
-      </c>
-      <c r="S95" s="1">
-        <v>6390515</v>
-      </c>
-      <c r="T95" s="1">
-        <v>160208</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+        <v>15.88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B96" s="1">
-        <v>1</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E96" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="F96" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>535</v>
+        <v>478</v>
+      </c>
+      <c r="I96" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J96" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="K96" t="s">
+        <v>548</v>
       </c>
       <c r="L96">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="N96" s="1">
-        <v>0</v>
-      </c>
-      <c r="O96" s="1">
-        <v>1</v>
-      </c>
-      <c r="P96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>2</v>
-      </c>
-      <c r="R96">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="M96" s="15" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B97" s="1">
         <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="K97" s="1" t="s">
-        <v>546</v>
+        <v>478</v>
+      </c>
+      <c r="I97" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J97" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="K97" t="s">
+        <v>550</v>
       </c>
       <c r="L97">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M97" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="N97" s="1">
-        <v>7.94</v>
-      </c>
-      <c r="O97" s="1">
-        <v>1</v>
-      </c>
-      <c r="P97">
-        <f t="shared" si="1"/>
-        <v>7.94</v>
-      </c>
-      <c r="Q97">
-        <v>2</v>
-      </c>
-      <c r="R97">
-        <f t="shared" si="2"/>
-        <v>15.88</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M97" s="15" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="B98" s="1">
         <v>2</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I98" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J98" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K98" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="L98">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="M98" s="15" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="99" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="B99" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K99" t="s">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="L99">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M99" s="15" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="B100" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J100" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K100" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="L100">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>200</v>
       </c>
       <c r="M100" s="15" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I101" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J101" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="K101" t="s">
+        <v>554</v>
+      </c>
+      <c r="L101">
+        <v>25</v>
+      </c>
+      <c r="M101" s="15" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I102" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J102" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="K102" t="s">
+        <v>556</v>
+      </c>
+      <c r="L102">
+        <v>200</v>
+      </c>
+      <c r="M102" s="15" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="B101" s="1">
-        <v>2</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I101" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="J101" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="K101" t="s">
-        <v>559</v>
-      </c>
-      <c r="L101">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M101" s="15" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="B102" s="1">
-        <v>100</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I102" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="J102" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="K102" t="s">
-        <v>558</v>
-      </c>
-      <c r="L102">
-        <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="M102" s="15" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I103" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="J103" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="K103" t="s">
-        <v>567</v>
-      </c>
-      <c r="L103">
-        <v>25</v>
-      </c>
-      <c r="M103" s="15" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="104" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="I104" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="J104" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="K104" t="s">
-        <v>569</v>
-      </c>
-      <c r="L104">
-        <v>200</v>
-      </c>
-      <c r="M104" s="15" t="s">
-        <v>568</v>
-      </c>
+    <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I1006" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="I1:I1004" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="M27" r:id="rId1" location="9464K86" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="M28" r:id="rId2" location="9464K361" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -7642,27 +7500,25 @@
     <hyperlink ref="M82" r:id="rId56" location="57155K205" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
     <hyperlink ref="M83" r:id="rId57" location="1375K15" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
     <hyperlink ref="M84" r:id="rId58" location="1375K15" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="M85" r:id="rId59" location="1375K21" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="M86" r:id="rId60" location="7887K12" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="M87" r:id="rId61" location="7887K19" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="M88" r:id="rId62" location="2797T1" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="M89" r:id="rId63" location="9714K28" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="M90" r:id="rId64" location="6157K12" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="M94" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="M95" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="M97" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="M100" r:id="rId68" xr:uid="{BDA7DC6D-AF69-4871-99FA-98BD36A79732}"/>
-    <hyperlink ref="M101" r:id="rId69" xr:uid="{73F387BF-6A37-4D31-BB28-40DCC0177278}"/>
-    <hyperlink ref="M102" r:id="rId70" xr:uid="{73CB6BFE-5055-49F5-A34E-92DD59BE0FB4}"/>
-    <hyperlink ref="M98" r:id="rId71" xr:uid="{24A3E1CA-B2F3-4F81-8697-FC2F04ADE3E0}"/>
-    <hyperlink ref="M99" r:id="rId72" xr:uid="{34489014-437B-481E-AF31-92E361D34627}"/>
-    <hyperlink ref="M103" r:id="rId73" xr:uid="{14763EDC-C800-44F3-959B-34554BD9B2C2}"/>
-    <hyperlink ref="M104" r:id="rId74" xr:uid="{FEB20DD9-220D-43E6-8847-4BCDCF406B51}"/>
+    <hyperlink ref="M86" r:id="rId59" location="7887K12" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="M87" r:id="rId60" location="7887K19" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="M92" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="M93" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="M95" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="M98" r:id="rId64" xr:uid="{BDA7DC6D-AF69-4871-99FA-98BD36A79732}"/>
+    <hyperlink ref="M99" r:id="rId65" xr:uid="{73F387BF-6A37-4D31-BB28-40DCC0177278}"/>
+    <hyperlink ref="M100" r:id="rId66" xr:uid="{73CB6BFE-5055-49F5-A34E-92DD59BE0FB4}"/>
+    <hyperlink ref="M96" r:id="rId67" xr:uid="{24A3E1CA-B2F3-4F81-8697-FC2F04ADE3E0}"/>
+    <hyperlink ref="M97" r:id="rId68" xr:uid="{34489014-437B-481E-AF31-92E361D34627}"/>
+    <hyperlink ref="M101" r:id="rId69" xr:uid="{14763EDC-C800-44F3-959B-34554BD9B2C2}"/>
+    <hyperlink ref="M102" r:id="rId70" xr:uid="{FEB20DD9-220D-43E6-8847-4BCDCF406B51}"/>
+    <hyperlink ref="M85" r:id="rId71" xr:uid="{707ED91A-B033-4DD9-9841-0AC61C0FFE91}"/>
+    <hyperlink ref="M88" r:id="rId72" xr:uid="{1BAEDE91-2F49-4676-B529-0A4ED65935F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId75"/>
-  <drawing r:id="rId76"/>
-  <legacyDrawing r:id="rId77"/>
+  <pageSetup orientation="portrait" r:id="rId73"/>
+  <drawing r:id="rId74"/>
+  <legacyDrawing r:id="rId75"/>
 </worksheet>
 </file>
 
@@ -8008,7 +7864,7 @@
         <v>112</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -8023,10 +7879,10 @@
         <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I8" s="1">
         <v>1.9</v>
@@ -8071,10 +7927,10 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -8089,10 +7945,10 @@
         <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="I10" s="1">
         <v>10.26</v>
@@ -8152,7 +8008,7 @@
         <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -8167,10 +8023,10 @@
         <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="I13" s="1">
         <v>5.14</v>
@@ -8213,10 +8069,10 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -8231,10 +8087,10 @@
         <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="I15" s="1">
         <v>5.14</v>
@@ -8259,10 +8115,10 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -8295,7 +8151,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -8318,7 +8174,7 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -8335,10 +8191,10 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -8349,10 +8205,10 @@
         <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="I19" s="1">
         <v>10</v>
@@ -8377,10 +8233,10 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>223</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -8391,10 +8247,10 @@
         <v>28</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I20" s="1">
         <v>4.92</v>
@@ -8419,10 +8275,10 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>241</v>
       </c>
       <c r="C21" s="1">
         <v>4</v>
@@ -8433,10 +8289,10 @@
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="I21" s="1">
         <v>5.35</v>
@@ -8461,10 +8317,10 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>251</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -8477,10 +8333,10 @@
         <v>28</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I22" s="1">
         <v>4.58</v>
@@ -8505,10 +8361,10 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>263</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>264</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -8519,10 +8375,10 @@
         <v>28</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>266</v>
       </c>
       <c r="I23" s="1">
         <v>14.07</v>
@@ -8547,10 +8403,10 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -8563,10 +8419,10 @@
         <v>28</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="I24" s="1">
         <v>7.51</v>
@@ -8591,10 +8447,10 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>285</v>
       </c>
       <c r="C25" s="1">
         <v>2</v>
@@ -8605,10 +8461,10 @@
         <v>28</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I25" s="1">
         <v>4.5999999999999996</v>
@@ -8633,10 +8489,10 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>296</v>
       </c>
       <c r="C26" s="1">
         <v>4</v>
@@ -8649,10 +8505,10 @@
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="I26" s="1">
         <v>8.35</v>
@@ -8677,7 +8533,7 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -8699,10 +8555,10 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -8711,10 +8567,10 @@
         <v>28</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="I28" s="1">
         <v>6.6</v>
@@ -8735,10 +8591,10 @@
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -8749,10 +8605,10 @@
         <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="I29" s="1">
         <v>4.75</v>
@@ -8777,10 +8633,10 @@
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -8797,7 +8653,7 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -8819,7 +8675,7 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -8840,7 +8696,7 @@
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -8858,7 +8714,7 @@
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -8879,7 +8735,7 @@
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -8900,7 +8756,7 @@
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -8921,7 +8777,7 @@
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H37" s="1"/>
       <c r="K37" s="2" t="str">
@@ -8935,7 +8791,7 @@
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -8955,20 +8811,20 @@
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I39" s="1">
         <v>21.8</v>
@@ -8987,7 +8843,7 @@
     </row>
     <row r="40" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -9007,16 +8863,16 @@
     </row>
     <row r="41" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1">
@@ -9036,16 +8892,16 @@
     </row>
     <row r="42" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="I42" s="1">
         <v>9.9499999999999993</v>
@@ -9064,15 +8920,15 @@
     </row>
     <row r="44" spans="1:13" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
@@ -13415,10 +13271,10 @@
         <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>143</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="I7" s="1">
         <v>2.2999999999999998</v>
@@ -13443,10 +13299,10 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -13459,10 +13315,10 @@
         <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="I8" s="1">
         <v>1.47</v>
@@ -13487,10 +13343,10 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -13505,10 +13361,10 @@
         <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="I9" s="1">
         <v>13.12</v>
@@ -13533,10 +13389,10 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -13551,10 +13407,10 @@
         <v>28</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="I10" s="1">
         <v>4.99</v>
@@ -13579,16 +13435,16 @@
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>27</v>
@@ -13597,10 +13453,10 @@
         <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>182</v>
       </c>
       <c r="I11" s="1">
         <v>2.21</v>
@@ -13643,10 +13499,10 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -13661,10 +13517,10 @@
         <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I13" s="1">
         <v>5.96</v>
@@ -13689,7 +13545,7 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -13711,10 +13567,10 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>200</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -13724,10 +13580,10 @@
         <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="I15" s="1">
         <v>4.3899999999999997</v>
@@ -13752,10 +13608,10 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>210</v>
       </c>
       <c r="C16" s="1">
         <v>8</v>
@@ -13765,10 +13621,10 @@
         <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="I16" s="1">
         <v>6.72</v>
@@ -13793,10 +13649,10 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="C17" s="1">
         <v>8</v>
@@ -13805,10 +13661,10 @@
         <v>28</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>220</v>
       </c>
       <c r="I17" s="1">
         <v>3.88</v>
@@ -13833,10 +13689,10 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="C18" s="1">
         <v>10</v>
@@ -13845,10 +13701,10 @@
         <v>28</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="I18" s="1">
         <v>4.12</v>
@@ -13873,10 +13729,10 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>234</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>235</v>
       </c>
       <c r="C19" s="1">
         <v>4</v>
@@ -13885,10 +13741,10 @@
         <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>237</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>238</v>
       </c>
       <c r="I19" s="1">
         <v>6.61</v>
@@ -13913,10 +13769,10 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -13925,10 +13781,10 @@
         <v>28</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="I20" s="1">
         <v>10.28</v>
@@ -13953,10 +13809,10 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>260</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -13965,10 +13821,10 @@
         <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="I21" s="1">
         <v>7.23</v>
@@ -13993,10 +13849,10 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>270</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -14005,10 +13861,10 @@
         <v>28</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="I22" s="1">
         <v>4.96</v>
@@ -14033,7 +13889,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14046,10 +13902,10 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -14058,10 +13914,10 @@
         <v>28</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I24" s="1">
         <v>2.23</v>
@@ -14086,10 +13942,10 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -14098,10 +13954,10 @@
         <v>28</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I25" s="1">
         <v>10.76</v>
@@ -14126,10 +13982,10 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C26" s="1">
         <v>2</v>
@@ -14138,10 +13994,10 @@
         <v>28</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="I26" s="1">
         <v>7.94</v>
@@ -14166,10 +14022,10 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27" s="1">
         <v>1</v>
@@ -14178,10 +14034,10 @@
         <v>28</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="I27" s="1">
         <v>11.25</v>
@@ -14206,7 +14062,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K28" s="2" t="str">
         <f t="shared" si="2"/>
@@ -14219,10 +14075,10 @@
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="C29" s="1">
         <v>2</v>
@@ -14231,10 +14087,10 @@
         <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="I29" s="1">
         <v>5.71</v>
@@ -14259,10 +14115,10 @@
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -14271,10 +14127,10 @@
         <v>28</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>321</v>
       </c>
       <c r="I30" s="1">
         <v>2.39</v>
@@ -14295,10 +14151,10 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
@@ -14307,10 +14163,10 @@
         <v>28</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>326</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>327</v>
       </c>
       <c r="I31" s="1">
         <v>2.5099999999999998</v>
@@ -14331,10 +14187,10 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>337</v>
       </c>
       <c r="C32" s="1">
         <v>3</v>
@@ -14343,10 +14199,10 @@
         <v>28</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="I32" s="1">
         <v>9.81</v>
@@ -14371,7 +14227,7 @@
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -14387,7 +14243,7 @@
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -14403,7 +14259,7 @@
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -14419,7 +14275,7 @@
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -14435,7 +14291,7 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -14451,7 +14307,7 @@
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K38" s="2" t="str">
         <f t="shared" ref="K38:K41" si="4">IF(I38, I38/J38, "")</f>
@@ -14464,19 +14320,19 @@
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G39" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="I39" s="1">
         <v>100</v>
@@ -14501,19 +14357,19 @@
     </row>
     <row r="40" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I40" s="1">
         <v>18.600000000000001</v>
@@ -14538,7 +14394,7 @@
     </row>
     <row r="41" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C41" s="1">
         <v>1</v>
@@ -14560,7 +14416,7 @@
     </row>
     <row r="42" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C42" s="1"/>
       <c r="K42" s="2"/>
@@ -14574,7 +14430,7 @@
     </row>
     <row r="43" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K43" s="2" t="str">
         <f t="shared" ref="K43:K47" si="6">IF(I43, I43/J43, "")</f>
@@ -14587,19 +14443,19 @@
     </row>
     <row r="44" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C44" s="1">
         <v>2</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="G44" s="1">
         <v>1206</v>
@@ -14619,19 +14475,19 @@
         <v>39.9</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1">
         <v>1</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
@@ -14653,16 +14509,16 @@
     </row>
     <row r="46" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C46" s="1">
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I46" s="1">
         <v>34.950000000000003</v>
@@ -14681,16 +14537,16 @@
     </row>
     <row r="47" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C47" s="1">
         <v>1</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I47" s="1">
         <v>24.95</v>

--- a/docs/BOM_191002.xlsx
+++ b/docs/BOM_191002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kris\Documents\git\gridtapebranch\GridTapeStage\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4831721-CC0A-4D4A-BB4F-91373DFE5CA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6853A4-CB9E-48B7-8403-6E76D70C903C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18624" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Reel housing" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$I$1:$I$1004</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BOM!$I$1:$I$1006</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="B22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="H32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="N38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -95,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="H57" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K60" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="K62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -121,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="K66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="K71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="N71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -166,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="N73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -179,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="N78" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K80" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="K82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -206,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="K86" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -219,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="K93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -322,7 +322,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="574">
   <si>
     <t>Part name</t>
   </si>
@@ -2026,6 +2026,24 @@
   </si>
   <si>
     <t>SDP/SI</t>
+  </si>
+  <si>
+    <t>steel shim</t>
+  </si>
+  <si>
+    <t>roller spacer</t>
+  </si>
+  <si>
+    <t>roller_spacer</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>inner spacer</t>
+  </si>
+  <si>
+    <t>inner_spacer</t>
   </si>
 </sst>
 </file>
@@ -2036,7 +2054,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2080,12 +2098,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF6611CC"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2135,7 +2147,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2157,14 +2169,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2190,13 +2202,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2249,13 +2261,13 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2606,13 +2618,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W103"/>
+  <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2727,7 +2739,7 @@
       </c>
       <c r="J2" s="1"/>
       <c r="L2">
-        <f t="shared" ref="L2:L70" si="0">B2*2</f>
+        <f t="shared" ref="L2:L72" si="0">B2*2</f>
         <v>2</v>
       </c>
     </row>
@@ -3196,7 +3208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>107</v>
       </c>
@@ -3229,7 +3241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>109</v>
       </c>
@@ -3262,7 +3274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>112</v>
       </c>
@@ -3295,21 +3307,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="1">
-        <v>4</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>32</v>
@@ -3318,92 +3326,83 @@
         <v>33</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>120</v>
+        <v>571</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L20">
+    </row>
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="1">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>130</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>32</v>
@@ -3412,7 +3411,7 @@
         <v>33</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>35</v>
@@ -3422,21 +3421,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>32</v>
@@ -3445,25 +3441,28 @@
         <v>33</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="L24">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>558</v>
+        <v>130</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>131</v>
@@ -3475,28 +3474,28 @@
         <v>33</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="L25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>562</v>
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>131</v>
@@ -3508,134 +3507,94 @@
         <v>33</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>35</v>
       </c>
       <c r="L26">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B27" s="1">
         <v>2</v>
       </c>
+      <c r="C27" s="1" t="s">
+        <v>558</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>149</v>
+        <v>32</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="L27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="N27" s="1">
-        <v>11.63</v>
-      </c>
-      <c r="O27" s="1">
-        <v>50</v>
-      </c>
-      <c r="P27">
-        <f t="shared" ref="P27:P95" si="1">N27/O27</f>
-        <v>0.23260000000000003</v>
-      </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="R27">
-        <f t="shared" ref="R27:R95" si="2">Q27*N27</f>
-        <v>11.63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>562</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="L28">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="1">
         <v>2</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="N28" s="1">
-        <v>4.75</v>
-      </c>
-      <c r="O28" s="1">
-        <v>10</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="1"/>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="2"/>
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>149</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>151</v>
@@ -3644,36 +3603,36 @@
         <v>28</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="L29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="N29" s="1">
-        <v>10.76</v>
+        <v>11.63</v>
       </c>
       <c r="O29" s="1">
         <v>50</v>
       </c>
       <c r="P29">
-        <f t="shared" si="1"/>
-        <v>0.2152</v>
+        <f t="shared" ref="P29:P97" si="1">N29/O29</f>
+        <v>0.23260000000000003</v>
       </c>
       <c r="Q29">
         <v>1</v>
       </c>
       <c r="R29">
-        <f t="shared" si="2"/>
-        <v>10.76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R29:R97" si="2">Q29*N29</f>
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
@@ -3684,8 +3643,11 @@
       <c r="F30" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H30" s="1" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>151</v>
@@ -3694,49 +3656,46 @@
         <v>28</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="L30">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="N30" s="1">
-        <v>10.49</v>
+        <v>4.75</v>
       </c>
       <c r="O30" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="P30">
         <f t="shared" si="1"/>
-        <v>0.20980000000000001</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="Q30">
         <v>1</v>
       </c>
       <c r="R30">
         <f t="shared" si="2"/>
-        <v>10.49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B31" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H31" s="1" t="s">
         <v>183</v>
       </c>
@@ -3751,7 +3710,7 @@
       </c>
       <c r="L31">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>188</v>
@@ -3774,24 +3733,21 @@
         <v>10.76</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H32" s="1" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>151</v>
@@ -3800,45 +3756,42 @@
         <v>28</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="L32">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="N32" s="1">
-        <v>11.25</v>
+        <v>10.49</v>
       </c>
       <c r="O32" s="1">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="P32">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.20980000000000001</v>
       </c>
       <c r="Q32">
         <v>1</v>
       </c>
       <c r="R32">
         <f t="shared" si="2"/>
-        <v>11.25</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B33" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>149</v>
@@ -3847,7 +3800,7 @@
         <v>33</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>151</v>
@@ -3856,48 +3809,42 @@
         <v>28</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="L33">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="N33" s="1">
-        <v>7.94</v>
+        <v>10.76</v>
       </c>
       <c r="O33" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P33">
         <f t="shared" si="1"/>
-        <v>0.79400000000000004</v>
+        <v>0.2152</v>
       </c>
       <c r="Q33">
         <v>1</v>
       </c>
       <c r="R33">
         <f t="shared" si="2"/>
-        <v>7.94</v>
-      </c>
-      <c r="S33" s="1">
-        <v>6448208</v>
-      </c>
-      <c r="T33" s="7">
-        <v>42451</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10.76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>149</v>
@@ -3906,7 +3853,7 @@
         <v>33</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>151</v>
@@ -3915,157 +3862,160 @@
         <v>28</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="L34">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="N34" s="1">
-        <v>2.23</v>
+        <v>11.25</v>
       </c>
       <c r="O34" s="1">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="P34">
         <f t="shared" si="1"/>
-        <v>1.115</v>
+        <v>0.45</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R34">
         <f t="shared" si="2"/>
-        <v>4.46</v>
-      </c>
-      <c r="S34" s="1">
-        <v>6448208</v>
-      </c>
-      <c r="T34" s="7">
-        <v>42451</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11.25</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="B35" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="H35" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="I35" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>256</v>
+        <v>28</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="L35">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="N35" s="1">
-        <v>8.25</v>
+        <v>7.94</v>
       </c>
       <c r="O35" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="P35">
         <f t="shared" si="1"/>
-        <v>8.25</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="Q35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R35">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>7.94</v>
       </c>
       <c r="S35" s="1">
-        <v>6381132</v>
-      </c>
-      <c r="T35" s="1">
-        <v>160201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6448208</v>
+      </c>
+      <c r="T35" s="7">
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="B36" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="H36" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="I36" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>267</v>
+        <v>28</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>241</v>
       </c>
       <c r="L36">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="N36" s="1">
-        <v>8.25</v>
+        <v>2.23</v>
       </c>
       <c r="O36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P36">
         <f t="shared" si="1"/>
-        <v>8.25</v>
+        <v>1.115</v>
       </c>
       <c r="Q36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R36">
         <f t="shared" si="2"/>
-        <v>49.5</v>
+        <v>4.46</v>
       </c>
       <c r="S36" s="1">
-        <v>6381132</v>
-      </c>
-      <c r="T36" s="1">
-        <v>160201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6448208</v>
+      </c>
+      <c r="T36" s="7">
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>30</v>
@@ -4083,31 +4033,31 @@
         <v>255</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="L37">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="N37" s="1">
-        <v>75</v>
+        <v>8.25</v>
       </c>
       <c r="O37" s="1">
         <v>1</v>
       </c>
       <c r="P37">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>8.25</v>
       </c>
       <c r="Q37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R37">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="S37" s="1">
         <v>6381132</v>
@@ -4116,12 +4066,12 @@
         <v>160201</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="B38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>30</v>
@@ -4139,31 +4089,31 @@
         <v>255</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="L38">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="N38" s="1">
-        <v>9.3000000000000007</v>
+        <v>8.25</v>
       </c>
       <c r="O38" s="1">
         <v>1</v>
       </c>
       <c r="P38">
         <f t="shared" si="1"/>
-        <v>9.3000000000000007</v>
+        <v>8.25</v>
       </c>
       <c r="Q38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R38">
         <f t="shared" si="2"/>
-        <v>37.200000000000003</v>
+        <v>49.5</v>
       </c>
       <c r="S38" s="1">
         <v>6381132</v>
@@ -4172,9 +4122,9 @@
         <v>160201</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="B39" s="1">
         <v>1</v>
@@ -4195,31 +4145,31 @@
         <v>255</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="L39">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="N39" s="1">
-        <v>21.8</v>
+        <v>75</v>
       </c>
       <c r="O39" s="1">
         <v>1</v>
       </c>
       <c r="P39">
         <f t="shared" si="1"/>
-        <v>21.8</v>
+        <v>75</v>
       </c>
       <c r="Q39">
         <v>2</v>
       </c>
       <c r="R39">
         <f t="shared" si="2"/>
-        <v>43.6</v>
+        <v>150</v>
       </c>
       <c r="S39" s="1">
         <v>6381132</v>
@@ -4228,12 +4178,12 @@
         <v>160201</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="B40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>30</v>
@@ -4245,7 +4195,7 @@
         <v>33</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>255</v>
@@ -4255,7 +4205,7 @@
       </c>
       <c r="L40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>292</v>
@@ -4271,11 +4221,11 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="Q40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R40">
         <f t="shared" si="2"/>
-        <v>18.600000000000001</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="S40" s="1">
         <v>6381132</v>
@@ -4284,9 +4234,9 @@
         <v>160201</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="B41" s="1">
         <v>1</v>
@@ -4301,37 +4251,37 @@
         <v>33</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>255</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="L41">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="N41" s="1">
-        <v>9.3000000000000007</v>
+        <v>21.8</v>
       </c>
       <c r="O41" s="1">
         <v>1</v>
       </c>
       <c r="P41">
         <f t="shared" si="1"/>
-        <v>9.3000000000000007</v>
+        <v>21.8</v>
       </c>
       <c r="Q41">
         <v>2</v>
       </c>
       <c r="R41">
         <f t="shared" si="2"/>
-        <v>18.600000000000001</v>
+        <v>43.6</v>
       </c>
       <c r="S41" s="1">
         <v>6381132</v>
@@ -4340,15 +4290,15 @@
         <v>160201</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="B42" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>254</v>
@@ -4357,37 +4307,37 @@
         <v>33</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>151</v>
+        <v>313</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>255</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="L42">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="N42" s="1">
-        <v>100</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="O42" s="1">
         <v>1</v>
       </c>
       <c r="P42">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="Q42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R42">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="S42" s="1">
         <v>6381132</v>
@@ -4396,15 +4346,15 @@
         <v>160201</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B43" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>254</v>
@@ -4413,37 +4363,37 @@
         <v>33</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>151</v>
+        <v>313</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>255</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="L43">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>292</v>
       </c>
       <c r="N43" s="1">
-        <v>8.25</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="O43" s="1">
         <v>1</v>
       </c>
       <c r="P43">
         <f t="shared" si="1"/>
-        <v>8.25</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="Q43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R43">
         <f t="shared" si="2"/>
-        <v>49.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="S43" s="1">
         <v>6381132</v>
@@ -4452,9 +4402,9 @@
         <v>160201</v>
       </c>
     </row>
-    <row r="44" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B44" s="1">
         <v>3</v>
@@ -4475,31 +4425,31 @@
         <v>255</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="L44">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>272</v>
+        <v>329</v>
       </c>
       <c r="N44" s="1">
-        <v>6.5</v>
+        <v>100</v>
       </c>
       <c r="O44" s="1">
         <v>1</v>
       </c>
       <c r="P44">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>100</v>
       </c>
       <c r="Q44">
         <v>6</v>
       </c>
       <c r="R44">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>600</v>
       </c>
       <c r="S44" s="1">
         <v>6381132</v>
@@ -4508,9 +4458,9 @@
         <v>160201</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="B45" s="1">
         <v>3</v>
@@ -4531,31 +4481,31 @@
         <v>255</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="L45">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="N45" s="1">
-        <v>18.600000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="O45" s="1">
         <v>1</v>
       </c>
       <c r="P45">
         <f t="shared" si="1"/>
-        <v>18.600000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="Q45">
         <v>6</v>
       </c>
       <c r="R45">
         <f t="shared" si="2"/>
-        <v>111.60000000000001</v>
+        <v>49.5</v>
       </c>
       <c r="S45" s="1">
         <v>6381132</v>
@@ -4564,115 +4514,124 @@
         <v>160201</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>360</v>
+        <v>254</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>361</v>
-      </c>
       <c r="I46" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="L46">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="N46" s="1">
-        <v>7.34</v>
+        <v>6.5</v>
       </c>
       <c r="O46" s="1">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="P46">
         <f t="shared" si="1"/>
-        <v>0.14679999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="Q46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R46">
         <f t="shared" si="2"/>
-        <v>7.34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="S46" s="1">
+        <v>6381132</v>
+      </c>
+      <c r="T46" s="1">
+        <v>160201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B47" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>368</v>
+        <v>254</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="L47">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="N47" s="1">
-        <v>9.01</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="O47" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="P47">
         <f t="shared" si="1"/>
-        <v>9.01E-2</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="Q47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R47">
         <f t="shared" si="2"/>
-        <v>9.01</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+        <v>111.60000000000001</v>
+      </c>
+      <c r="S47" s="1">
+        <v>6381132</v>
+      </c>
+      <c r="T47" s="1">
+        <v>160201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="B48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>53</v>
@@ -4684,7 +4643,7 @@
         <v>33</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>151</v>
@@ -4693,57 +4652,48 @@
         <v>28</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="L48">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="N48" s="1">
-        <v>8.1199999999999992</v>
+        <v>7.34</v>
       </c>
       <c r="O48" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="P48">
         <f t="shared" si="1"/>
-        <v>1.6239999999999999</v>
+        <v>0.14679999999999999</v>
       </c>
       <c r="Q48">
         <v>1</v>
       </c>
       <c r="R48">
         <f t="shared" si="2"/>
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="S48" s="1">
-        <v>6448208</v>
-      </c>
-      <c r="T48" s="7">
-        <v>42451</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="B49" s="1">
         <v>4</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H49" s="1" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>151</v>
@@ -4752,54 +4702,51 @@
         <v>28</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="L49">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="N49" s="1">
-        <v>5.35</v>
+        <v>9.01</v>
       </c>
       <c r="O49" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="P49">
         <f t="shared" si="1"/>
-        <v>1.0699999999999998</v>
+        <v>9.01E-2</v>
       </c>
       <c r="Q49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R49">
         <f t="shared" si="2"/>
-        <v>10.7</v>
-      </c>
-      <c r="S49" s="1">
-        <v>6448208</v>
-      </c>
-      <c r="T49" s="7">
-        <v>42451</v>
+        <v>9.01</v>
       </c>
     </row>
     <row r="50" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="B50" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>360</v>
       </c>
+      <c r="G50" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H50" s="1" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>151</v>
@@ -4808,31 +4755,31 @@
         <v>28</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="L50">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="N50" s="1">
-        <v>8.6999999999999993</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="O50" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="P50">
         <f t="shared" si="1"/>
-        <v>0.34799999999999998</v>
+        <v>1.6239999999999999</v>
       </c>
       <c r="Q50">
         <v>1</v>
       </c>
       <c r="R50">
         <f t="shared" si="2"/>
-        <v>8.6999999999999993</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="S50" s="1">
         <v>6448208</v>
@@ -4843,10 +4790,10 @@
     </row>
     <row r="51" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B51" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>30</v>
@@ -4854,8 +4801,11 @@
       <c r="F51" s="1" t="s">
         <v>360</v>
       </c>
+      <c r="G51" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H51" s="1" t="s">
-        <v>537</v>
+        <v>385</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>151</v>
@@ -4863,51 +4813,55 @@
       <c r="J51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K51" s="4" t="s">
-        <v>220</v>
+      <c r="K51" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="L51">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="N51" s="1">
-        <v>4</v>
+        <v>5.35</v>
       </c>
       <c r="O51" s="1">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="P51">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>1.0699999999999998</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R51">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="S51" s="1"/>
-      <c r="T51" s="7"/>
+        <v>10.7</v>
+      </c>
+      <c r="S51" s="1">
+        <v>6448208</v>
+      </c>
+      <c r="T51" s="7">
+        <v>42451</v>
+      </c>
     </row>
     <row r="52" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B52" s="1">
         <v>4</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>360</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>151</v>
@@ -4916,39 +4870,45 @@
         <v>28</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L52">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="N52" s="1">
-        <v>9.6300000000000008</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="O52" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="P52">
         <f t="shared" si="1"/>
-        <v>9.6300000000000011E-2</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="Q52">
         <v>1</v>
       </c>
       <c r="R52">
         <f t="shared" si="2"/>
-        <v>9.6300000000000008</v>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S52" s="1">
+        <v>6448208</v>
+      </c>
+      <c r="T52" s="7">
+        <v>42451</v>
       </c>
     </row>
     <row r="53" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B53" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>30</v>
@@ -4957,7 +4917,7 @@
         <v>360</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>401</v>
+        <v>537</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>151</v>
@@ -4966,54 +4926,50 @@
         <v>28</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>402</v>
+        <v>220</v>
       </c>
       <c r="L53">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="N53" s="1">
-        <v>8.2100000000000009</v>
+        <v>4</v>
       </c>
       <c r="O53" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="P53">
         <f t="shared" si="1"/>
-        <v>0.32840000000000003</v>
+        <v>0.04</v>
       </c>
       <c r="Q53">
         <v>1</v>
       </c>
       <c r="R53">
         <f t="shared" si="2"/>
-        <v>8.2100000000000009</v>
-      </c>
-      <c r="S53" s="1">
-        <v>6448208</v>
-      </c>
-      <c r="T53" s="7">
-        <v>42451</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S53" s="1"/>
+      <c r="T53" s="7"/>
     </row>
     <row r="54" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B54" s="1">
         <v>4</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>360</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>151</v>
@@ -5022,36 +4978,36 @@
         <v>28</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="L54">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="N54" s="1">
-        <v>10</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="O54" s="1">
         <v>100</v>
       </c>
       <c r="P54">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>9.6300000000000011E-2</v>
       </c>
       <c r="Q54">
         <v>1</v>
       </c>
       <c r="R54">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9.6300000000000008</v>
       </c>
     </row>
     <row r="55" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>221</v>
+        <v>400</v>
       </c>
       <c r="B55" s="1">
         <v>4</v>
@@ -5063,7 +5019,7 @@
         <v>360</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>151</v>
@@ -5072,48 +5028,54 @@
         <v>28</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="L55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="N55" s="1">
-        <v>4.3600000000000003</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="O55" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="P55">
         <f t="shared" si="1"/>
-        <v>4.36E-2</v>
+        <v>0.32840000000000003</v>
       </c>
       <c r="Q55">
         <v>1</v>
       </c>
       <c r="R55">
         <f t="shared" si="2"/>
-        <v>4.3600000000000003</v>
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="S55" s="1">
+        <v>6448208</v>
+      </c>
+      <c r="T55" s="7">
+        <v>42451</v>
       </c>
     </row>
     <row r="56" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B56" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>360</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>151</v>
@@ -5121,55 +5083,49 @@
       <c r="J56" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K56" s="4" t="s">
-        <v>413</v>
+      <c r="K56" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="N56" s="1">
-        <v>3.35</v>
+        <v>10</v>
       </c>
       <c r="O56" s="1">
         <v>100</v>
       </c>
       <c r="P56">
         <f t="shared" si="1"/>
-        <v>3.3500000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="Q56">
         <v>1</v>
       </c>
       <c r="R56">
         <f t="shared" si="2"/>
-        <v>3.35</v>
-      </c>
-      <c r="S56" s="1">
-        <v>6448208</v>
-      </c>
-      <c r="T56" s="7">
-        <v>42451</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>415</v>
+        <v>221</v>
       </c>
       <c r="B57" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>360</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>151</v>
@@ -5178,87 +5134,81 @@
         <v>28</v>
       </c>
       <c r="K57" s="4" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L57">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="N57" s="1">
-        <v>4.38</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="O57" s="1">
         <v>100</v>
       </c>
       <c r="P57">
         <f t="shared" si="1"/>
-        <v>4.3799999999999999E-2</v>
+        <v>4.36E-2</v>
       </c>
       <c r="Q57">
         <v>1</v>
       </c>
       <c r="R57">
         <f t="shared" si="2"/>
-        <v>4.38</v>
-      </c>
-      <c r="S57" s="1">
-        <v>6448208</v>
-      </c>
-      <c r="T57" s="7">
-        <v>42451</v>
+        <v>4.3600000000000003</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B58" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>360</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K58" s="4" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="L58">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="N58" s="1">
-        <v>4.3899999999999997</v>
+        <v>3.35</v>
       </c>
       <c r="O58" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P58">
         <f t="shared" si="1"/>
-        <v>4.3899999999999997</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="Q58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R58">
         <f t="shared" si="2"/>
-        <v>17.559999999999999</v>
+        <v>3.35</v>
       </c>
       <c r="S58" s="1">
         <v>6448208</v>
@@ -5269,19 +5219,19 @@
     </row>
     <row r="59" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B59" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>360</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>151</v>
@@ -5290,31 +5240,31 @@
         <v>28</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="L59">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="N59" s="1">
-        <v>7.1</v>
+        <v>4.38</v>
       </c>
       <c r="O59" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="P59">
         <f t="shared" si="1"/>
-        <v>0.71</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="Q59">
         <v>1</v>
       </c>
       <c r="R59">
         <f t="shared" si="2"/>
-        <v>7.1</v>
+        <v>4.38</v>
       </c>
       <c r="S59" s="1">
         <v>6448208</v>
@@ -5325,52 +5275,52 @@
     </row>
     <row r="60" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B60" s="1">
         <v>2</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>360</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>151</v>
+        <v>313</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K60" s="4" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L60">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="N60" s="1">
-        <v>7.1</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="O60" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P60">
         <f t="shared" si="1"/>
-        <v>0.71</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R60">
         <f t="shared" si="2"/>
-        <v>7.1</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="S60" s="1">
         <v>6448208</v>
@@ -5381,19 +5331,19 @@
     </row>
     <row r="61" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B61" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>360</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>151</v>
@@ -5402,31 +5352,31 @@
         <v>28</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L61">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="N61" s="1">
-        <v>5.72</v>
+        <v>7.1</v>
       </c>
       <c r="O61" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="P61">
         <f t="shared" si="1"/>
-        <v>5.7200000000000001E-2</v>
+        <v>0.71</v>
       </c>
       <c r="Q61">
         <v>1</v>
       </c>
       <c r="R61">
         <f t="shared" si="2"/>
-        <v>5.72</v>
+        <v>7.1</v>
       </c>
       <c r="S61" s="1">
         <v>6448208</v>
@@ -5437,22 +5387,19 @@
     </row>
     <row r="62" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B62" s="1">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H62" s="1" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>151</v>
@@ -5461,31 +5408,31 @@
         <v>28</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="L62">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="N62" s="1">
-        <v>3.98</v>
+        <v>7.1</v>
       </c>
       <c r="O62" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="P62">
         <f t="shared" si="1"/>
-        <v>3.9800000000000002E-2</v>
+        <v>0.71</v>
       </c>
       <c r="Q62">
         <v>1</v>
       </c>
       <c r="R62">
         <f t="shared" si="2"/>
-        <v>3.98</v>
+        <v>7.1</v>
       </c>
       <c r="S62" s="1">
         <v>6448208</v>
@@ -5496,19 +5443,19 @@
     </row>
     <row r="63" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B63" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>360</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>151</v>
@@ -5517,39 +5464,45 @@
         <v>28</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L63">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="N63" s="1">
-        <v>6.22</v>
+        <v>5.72</v>
       </c>
       <c r="O63" s="1">
         <v>100</v>
       </c>
       <c r="P63">
         <f t="shared" si="1"/>
-        <v>6.2199999999999998E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="Q63">
         <v>1</v>
       </c>
       <c r="R63">
         <f t="shared" si="2"/>
-        <v>6.22</v>
+        <v>5.72</v>
+      </c>
+      <c r="S63" s="1">
+        <v>6448208</v>
+      </c>
+      <c r="T63" s="7">
+        <v>42451</v>
       </c>
     </row>
     <row r="64" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B64" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>94</v>
@@ -5557,6 +5510,9 @@
       <c r="F64" s="1" t="s">
         <v>360</v>
       </c>
+      <c r="G64" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H64" s="1" t="s">
         <v>433</v>
       </c>
@@ -5571,7 +5527,7 @@
       </c>
       <c r="L64">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>435</v>
@@ -5602,7 +5558,7 @@
     </row>
     <row r="65" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B65" s="1">
         <v>16</v>
@@ -5613,11 +5569,8 @@
       <c r="F65" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H65" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>151</v>
@@ -5625,55 +5578,49 @@
       <c r="J65" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="1" t="s">
-        <v>443</v>
+      <c r="K65" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="L65">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="N65" s="1">
-        <v>7.07</v>
+        <v>6.22</v>
       </c>
       <c r="O65" s="1">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="P65">
         <f t="shared" si="1"/>
-        <v>0.2828</v>
+        <v>6.2199999999999998E-2</v>
       </c>
       <c r="Q65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R65">
         <f t="shared" si="2"/>
-        <v>14.14</v>
-      </c>
-      <c r="S65" s="1">
-        <v>6448208</v>
-      </c>
-      <c r="T65" s="7">
-        <v>42451</v>
+        <v>6.22</v>
       </c>
     </row>
     <row r="66" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B66" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>360</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>151</v>
@@ -5682,31 +5629,31 @@
         <v>28</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="L66">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="N66" s="1">
-        <v>4.21</v>
+        <v>3.98</v>
       </c>
       <c r="O66" s="1">
         <v>100</v>
       </c>
       <c r="P66">
         <f t="shared" si="1"/>
-        <v>4.2099999999999999E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="Q66">
         <v>1</v>
       </c>
       <c r="R66">
         <f t="shared" si="2"/>
-        <v>4.21</v>
+        <v>3.98</v>
       </c>
       <c r="S66" s="1">
         <v>6448208</v>
@@ -5717,19 +5664,22 @@
     </row>
     <row r="67" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B67" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>360</v>
       </c>
+      <c r="G67" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="H67" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>151</v>
@@ -5738,48 +5688,54 @@
         <v>28</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="L67">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="N67" s="1">
-        <v>7.23</v>
+        <v>7.07</v>
       </c>
       <c r="O67" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="P67">
         <f t="shared" si="1"/>
-        <v>7.2300000000000003E-2</v>
+        <v>0.2828</v>
       </c>
       <c r="Q67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R67">
         <f t="shared" si="2"/>
-        <v>7.23</v>
+        <v>14.14</v>
+      </c>
+      <c r="S67" s="1">
+        <v>6448208</v>
+      </c>
+      <c r="T67" s="7">
+        <v>42451</v>
       </c>
     </row>
     <row r="68" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>454</v>
+        <v>360</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>151</v>
@@ -5787,32 +5743,32 @@
       <c r="J68" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>456</v>
+      <c r="K68" s="4" t="s">
+        <v>447</v>
       </c>
       <c r="L68">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="N68" s="1">
-        <v>1.97</v>
+        <v>4.21</v>
       </c>
       <c r="O68" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P68">
         <f t="shared" si="1"/>
-        <v>1.97</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="Q68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R68">
         <f t="shared" si="2"/>
-        <v>3.94</v>
+        <v>4.21</v>
       </c>
       <c r="S68" s="1">
         <v>6448208</v>
@@ -5823,499 +5779,493 @@
     </row>
     <row r="69" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B69" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>459</v>
+        <v>360</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>151</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="K69" s="12" t="s">
-        <v>462</v>
+        <v>28</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>451</v>
       </c>
       <c r="L69">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="M69" s="13" t="s">
-        <v>463</v>
+        <v>4</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>452</v>
       </c>
       <c r="N69" s="1">
-        <v>37.99</v>
+        <v>7.23</v>
       </c>
       <c r="O69" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P69">
         <f t="shared" si="1"/>
-        <v>37.99</v>
+        <v>7.2300000000000003E-2</v>
       </c>
       <c r="Q69">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R69">
         <f t="shared" si="2"/>
-        <v>303.92</v>
-      </c>
-      <c r="S69" s="1">
-        <v>6390515</v>
-      </c>
-      <c r="T69" s="1">
-        <v>160208</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>53</v>
+        <v>453</v>
       </c>
       <c r="B70" s="1">
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>349</v>
+        <v>28</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>350</v>
+        <v>456</v>
       </c>
       <c r="L70">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="N70" s="1">
-        <v>7</v>
+        <v>1.97</v>
       </c>
       <c r="O70" s="1">
         <v>1</v>
       </c>
       <c r="P70">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>1.97</v>
       </c>
       <c r="Q70">
         <v>2</v>
       </c>
       <c r="R70">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="T70" s="1">
-        <v>160205</v>
+        <v>3.94</v>
+      </c>
+      <c r="S70" s="1">
+        <v>6448208</v>
+      </c>
+      <c r="T70" s="7">
+        <v>42451</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B71" s="1">
         <v>4</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>94</v>
+        <v>459</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>33</v>
+        <v>459</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="I71" s="1"/>
+        <v>460</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="J71" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="K71" s="1">
-        <v>103073</v>
-      </c>
-      <c r="L71" s="1">
+        <v>461</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M71" s="15" t="s">
-        <v>472</v>
+      <c r="M71" s="18" t="s">
+        <v>463</v>
       </c>
       <c r="N71" s="1">
-        <v>600</v>
+        <v>37.99</v>
       </c>
       <c r="O71" s="1">
         <v>1</v>
       </c>
       <c r="P71">
         <f t="shared" si="1"/>
-        <v>600</v>
+        <v>37.99</v>
       </c>
       <c r="Q71">
         <v>8</v>
       </c>
       <c r="R71">
         <f t="shared" si="2"/>
-        <v>4800</v>
+        <v>303.92</v>
       </c>
       <c r="S71" s="1">
-        <v>6382708</v>
+        <v>6390515</v>
       </c>
       <c r="T71" s="1">
-        <v>160202</v>
+        <v>160208</v>
       </c>
     </row>
     <row r="72" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>473</v>
+        <v>53</v>
       </c>
       <c r="B72" s="1">
         <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="N72" s="1">
+        <v>7</v>
+      </c>
+      <c r="O72" s="1">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Q72">
+        <v>2</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="T72" s="1">
+        <v>160205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B73" s="1">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="K73" s="1">
+        <v>103073</v>
+      </c>
+      <c r="L73" s="1">
+        <v>8</v>
+      </c>
+      <c r="M73" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="N73" s="1">
+        <v>600</v>
+      </c>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="Q73">
+        <v>8</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="2"/>
+        <v>4800</v>
+      </c>
+      <c r="S73" s="1">
+        <v>6382708</v>
+      </c>
+      <c r="T73" s="1">
+        <v>160202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B74" s="1">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I74" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J74" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K72" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="L72">
-        <f t="shared" ref="L72:L73" si="3">B72*2</f>
+      <c r="L74">
+        <f t="shared" ref="L74:L75" si="3">B74*2</f>
         <v>2</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="M74" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="N72" s="1">
+      <c r="N74" s="1">
         <f>18105 / 2</f>
         <v>9052.5</v>
       </c>
-      <c r="O72" s="1">
+      <c r="O74" s="1">
         <v>1</v>
       </c>
-      <c r="P72">
+      <c r="P74">
         <f t="shared" si="1"/>
         <v>9052.5</v>
       </c>
-      <c r="Q72">
+      <c r="Q74">
         <v>2</v>
       </c>
-      <c r="R72">
+      <c r="R74">
         <f t="shared" si="2"/>
         <v>18105</v>
       </c>
-      <c r="S72" s="1">
+      <c r="S74" s="1">
         <v>6382658</v>
       </c>
-      <c r="T72" s="1">
+      <c r="T74" s="1">
         <v>160202</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="75" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B75" s="1">
         <v>1</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I75" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J75" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="K73" s="1" t="s">
+      <c r="K75" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="L73">
+      <c r="L75">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="M73" s="3" t="s">
+      <c r="M75" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="N73" s="1">
+      <c r="N75" s="1">
         <v>9.9499999999999993</v>
       </c>
-      <c r="O73" s="1">
+      <c r="O75" s="1">
         <v>1</v>
       </c>
-      <c r="P73">
+      <c r="P75">
         <f t="shared" si="1"/>
         <v>9.9499999999999993</v>
       </c>
-      <c r="Q73">
+      <c r="Q75">
         <v>2</v>
       </c>
-      <c r="R73">
+      <c r="R75">
         <f t="shared" si="2"/>
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="76" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B76" s="1">
         <v>1</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F76" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I76" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J76" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="K76" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L76" s="1">
         <v>1</v>
       </c>
-      <c r="M74" s="3" t="s">
+      <c r="M76" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="N74" s="1">
+      <c r="N76" s="1">
         <v>4.95</v>
       </c>
-      <c r="O74" s="1">
+      <c r="O76" s="1">
         <v>1</v>
       </c>
-      <c r="P74">
+      <c r="P76">
         <f t="shared" si="1"/>
         <v>4.95</v>
       </c>
-      <c r="Q74">
+      <c r="Q76">
         <v>1</v>
       </c>
-      <c r="R74">
+      <c r="R76">
         <f t="shared" si="2"/>
         <v>4.95</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="77" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B77" s="1">
         <v>2</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J77" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="K75" s="1" t="s">
+      <c r="K77" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="L75">
-        <f t="shared" ref="L75:L78" si="4">B75*2</f>
+      <c r="L77">
+        <f t="shared" ref="L77:L80" si="4">B77*2</f>
         <v>4</v>
       </c>
-      <c r="M75" s="3" t="s">
+      <c r="M77" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="N75" s="1">
+      <c r="N77" s="1">
         <v>14.16</v>
       </c>
-      <c r="O75" s="1">
+      <c r="O77" s="1">
         <v>1</v>
       </c>
-      <c r="P75">
+      <c r="P77">
         <f t="shared" si="1"/>
         <v>14.16</v>
       </c>
-      <c r="Q75">
+      <c r="Q77">
         <v>4</v>
       </c>
-      <c r="R75">
+      <c r="R77">
         <f t="shared" si="2"/>
         <v>56.64</v>
       </c>
-      <c r="S75" s="1">
+      <c r="S77" s="1">
         <v>6432645</v>
       </c>
-      <c r="T75" s="1">
+      <c r="T77" s="1">
         <v>160310</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="B76" s="1">
-        <v>1</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="N76" s="1">
-        <v>20.27</v>
-      </c>
-      <c r="O76" s="1">
-        <v>1</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="1"/>
-        <v>20.27</v>
-      </c>
-      <c r="Q76">
-        <v>2</v>
-      </c>
-      <c r="R76">
-        <f t="shared" si="2"/>
-        <v>40.54</v>
-      </c>
-      <c r="S76" s="1">
-        <v>6390515</v>
-      </c>
-      <c r="T76" s="1">
-        <v>160208</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B77" s="1">
-        <v>1</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="N77" s="1">
-        <v>2.54</v>
-      </c>
-      <c r="O77" s="1">
-        <v>1</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="1"/>
-        <v>2.54</v>
-      </c>
-      <c r="Q77">
-        <v>2</v>
-      </c>
-      <c r="R77">
-        <f t="shared" si="2"/>
-        <v>5.08</v>
-      </c>
-      <c r="S77" s="1">
-        <v>6390515</v>
-      </c>
-      <c r="T77" s="1">
-        <v>160208</v>
       </c>
     </row>
     <row r="78" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B78" s="1">
         <v>1</v>
@@ -6327,40 +6277,40 @@
         <v>478</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>461</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="L78">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="N78" s="1">
-        <v>21.54</v>
+        <v>20.27</v>
       </c>
       <c r="O78" s="1">
         <v>1</v>
       </c>
       <c r="P78">
         <f t="shared" si="1"/>
-        <v>21.54</v>
+        <v>20.27</v>
       </c>
       <c r="Q78">
         <v>2</v>
       </c>
       <c r="R78">
         <f t="shared" si="2"/>
-        <v>43.08</v>
+        <v>40.54</v>
       </c>
       <c r="S78" s="1">
         <v>6390515</v>
@@ -6371,7 +6321,7 @@
     </row>
     <row r="79" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -6383,7 +6333,7 @@
         <v>478</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>313</v>
@@ -6392,30 +6342,31 @@
         <v>461</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="L79" s="1">
-        <v>1</v>
+        <v>494</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="M79" s="3" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N79" s="1">
-        <v>64.63</v>
+        <v>2.54</v>
       </c>
       <c r="O79" s="1">
         <v>1</v>
       </c>
       <c r="P79">
         <f t="shared" si="1"/>
-        <v>64.63</v>
+        <v>2.54</v>
       </c>
       <c r="Q79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R79">
         <f t="shared" si="2"/>
-        <v>64.63</v>
+        <v>5.08</v>
       </c>
       <c r="S79" s="1">
         <v>6390515</v>
@@ -6426,7 +6377,7 @@
     </row>
     <row r="80" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B80" s="1">
         <v>1</v>
@@ -6438,43 +6389,43 @@
         <v>478</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>313</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="L80">
-        <f t="shared" ref="L80:L100" si="5">B80*2</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="M80" s="15" t="s">
-        <v>508</v>
+      <c r="M80" s="3" t="s">
+        <v>499</v>
       </c>
       <c r="N80" s="1">
-        <v>102.14</v>
+        <v>21.54</v>
       </c>
       <c r="O80" s="1">
         <v>1</v>
       </c>
       <c r="P80">
         <f t="shared" si="1"/>
-        <v>102.14</v>
+        <v>21.54</v>
       </c>
       <c r="Q80">
         <v>2</v>
       </c>
       <c r="R80">
         <f t="shared" si="2"/>
-        <v>204.28</v>
-      </c>
-      <c r="S80" s="1" t="s">
-        <v>467</v>
+        <v>43.08</v>
+      </c>
+      <c r="S80" s="1">
+        <v>6390515</v>
       </c>
       <c r="T80" s="1">
         <v>160208</v>
@@ -6482,7 +6433,7 @@
     </row>
     <row r="81" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B81" s="1">
         <v>1</v>
@@ -6494,514 +6445,546 @@
         <v>478</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>313</v>
       </c>
       <c r="J81" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="L81" s="1">
+        <v>1</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="N81" s="1">
+        <v>64.63</v>
+      </c>
+      <c r="O81" s="1">
+        <v>1</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="1"/>
+        <v>64.63</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="2"/>
+        <v>64.63</v>
+      </c>
+      <c r="S81" s="1">
+        <v>6390515</v>
+      </c>
+      <c r="T81" s="1">
+        <v>160208</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J82" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="K81" s="1" t="s">
+      <c r="K82" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="L82">
+        <f t="shared" ref="L82:L102" si="5">B82*2</f>
+        <v>2</v>
+      </c>
+      <c r="M82" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="N82" s="1">
+        <v>102.14</v>
+      </c>
+      <c r="O82" s="1">
+        <v>1</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="1"/>
+        <v>102.14</v>
+      </c>
+      <c r="Q82">
+        <v>2</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="2"/>
+        <v>204.28</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="T82" s="1">
+        <v>160208</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="K83" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="L81">
+      <c r="L83">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M81" s="15" t="s">
+      <c r="M83" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="N81" s="1">
+      <c r="N83" s="1">
         <v>70.11</v>
       </c>
-      <c r="O81" s="1">
+      <c r="O83" s="1">
         <v>1</v>
       </c>
-      <c r="P81">
+      <c r="P83">
         <f t="shared" si="1"/>
         <v>70.11</v>
       </c>
-      <c r="Q81">
+      <c r="Q83">
         <v>2</v>
       </c>
-      <c r="R81">
+      <c r="R83">
         <f t="shared" si="2"/>
         <v>140.22</v>
       </c>
-      <c r="S81" s="1" t="s">
+      <c r="S83" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="T81" s="1">
+      <c r="T83" s="1">
         <v>160208</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="84" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B84" s="1">
         <v>4</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="J84" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K82" s="1" t="s">
+      <c r="K84" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="L82">
+      <c r="L84">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="M82" s="3" t="s">
+      <c r="M84" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="N82" s="1">
+      <c r="N84" s="1">
         <v>5.71</v>
       </c>
-      <c r="O82" s="1">
+      <c r="O84" s="1">
         <v>1</v>
       </c>
-      <c r="P82">
+      <c r="P84">
         <f t="shared" si="1"/>
         <v>5.71</v>
       </c>
-      <c r="Q82">
+      <c r="Q84">
         <v>8</v>
       </c>
-      <c r="R82">
+      <c r="R84">
         <f t="shared" si="2"/>
         <v>45.68</v>
       </c>
-      <c r="S82" s="1">
+      <c r="S84" s="1">
         <v>6448208</v>
       </c>
-      <c r="T82" s="7">
+      <c r="T84" s="7">
         <v>42451</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="85" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B85" s="1">
+        <v>4</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="N85" s="1">
+        <v>9.81</v>
+      </c>
+      <c r="O85" s="1">
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="1"/>
+        <v>9.81</v>
+      </c>
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="2"/>
+        <v>39.24</v>
+      </c>
+      <c r="S85" s="1">
+        <v>6448208</v>
+      </c>
+      <c r="T85" s="7">
+        <v>42451</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B86" s="1">
         <v>2</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F83" s="1" t="s">
+      <c r="E86" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H83" s="6" t="s">
+      <c r="H86" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I86" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J86" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K83" s="1" t="s">
+      <c r="K86" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="L83">
+      <c r="L86">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="M86" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="N83" s="1">
+      <c r="N86" s="1">
         <v>9.81</v>
       </c>
-      <c r="O83" s="1">
+      <c r="O86" s="1">
         <v>1</v>
       </c>
-      <c r="P83">
+      <c r="P86">
         <f t="shared" si="1"/>
         <v>9.81</v>
       </c>
-      <c r="Q83">
-        <v>4</v>
-      </c>
-      <c r="R83">
+      <c r="Q86">
+        <v>2</v>
+      </c>
+      <c r="R86">
         <f t="shared" si="2"/>
-        <v>39.24</v>
-      </c>
-      <c r="S83" s="1">
+        <v>19.62</v>
+      </c>
+      <c r="S86" s="1">
         <v>6448208</v>
       </c>
-      <c r="T83" s="7">
+      <c r="T86" s="7">
         <v>42451</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B84" s="1">
+    <row r="87" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="B87" s="1">
         <v>2</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E87" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F87" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="H84" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="I84" s="1" t="s">
+      <c r="H87" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="I87" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="J87" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K84" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="L84">
+      <c r="K87" s="16" t="s">
+        <v>560</v>
+      </c>
+      <c r="L87">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M84" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="N84" s="1">
-        <v>9.81</v>
-      </c>
-      <c r="O84" s="1">
+      <c r="M87" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="N87" s="1">
+        <v>12.92</v>
+      </c>
+      <c r="O87" s="1">
         <v>1</v>
       </c>
-      <c r="P84">
-        <f t="shared" si="1"/>
-        <v>9.81</v>
-      </c>
-      <c r="Q84">
-        <v>2</v>
-      </c>
-      <c r="R84">
-        <f t="shared" si="2"/>
-        <v>19.62</v>
-      </c>
-      <c r="S84" s="1">
-        <v>6448208</v>
-      </c>
-      <c r="T84" s="7">
-        <v>42451</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A85" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="B85" s="1">
-        <v>2</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F85" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="H85" s="18" t="s">
-        <v>559</v>
-      </c>
-      <c r="I85" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="J85" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K85" s="17" t="s">
-        <v>560</v>
-      </c>
-      <c r="L85">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M85" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="N85" s="1">
-        <v>12.92</v>
-      </c>
-      <c r="O85" s="1">
-        <v>1</v>
-      </c>
-      <c r="P85">
+      <c r="P87">
         <f t="shared" si="1"/>
         <v>12.92</v>
       </c>
-      <c r="Q85">
+      <c r="Q87">
         <v>4</v>
       </c>
-      <c r="R85">
+      <c r="R87">
         <f t="shared" si="2"/>
         <v>51.68</v>
       </c>
-      <c r="S85" s="1"/>
-      <c r="T85" s="7"/>
-    </row>
-    <row r="86" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="S87" s="1"/>
+      <c r="T87" s="7"/>
+    </row>
+    <row r="88" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B88" s="1">
         <v>1</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="H86" s="14" t="s">
+      <c r="H88" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I88" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="J88" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K86" s="1" t="s">
+      <c r="K88" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="L86">
+      <c r="L88">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M86" s="3" t="s">
+      <c r="M88" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="N86" s="1">
+      <c r="N88" s="1">
         <v>2.39</v>
       </c>
-      <c r="O86" s="1">
+      <c r="O88" s="1">
         <v>1</v>
       </c>
-      <c r="P86">
+      <c r="P88">
         <f t="shared" si="1"/>
         <v>2.39</v>
       </c>
-      <c r="Q86">
+      <c r="Q88">
         <v>2</v>
       </c>
-      <c r="R86">
+      <c r="R88">
         <f t="shared" si="2"/>
         <v>4.78</v>
       </c>
-      <c r="S86" s="1">
+      <c r="S88" s="1">
         <v>6448208</v>
       </c>
-      <c r="T86" s="7">
+      <c r="T88" s="7">
         <v>42451</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="B87" s="1">
-        <v>1</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="H87" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="N87" s="1">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="O87" s="1">
-        <v>1</v>
-      </c>
-      <c r="P87">
-        <f t="shared" si="1"/>
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="Q87">
-        <v>2</v>
-      </c>
-      <c r="R87">
-        <f t="shared" si="2"/>
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="S87" s="1">
-        <v>6448208</v>
-      </c>
-      <c r="T87" s="7">
-        <v>42451</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A88" s="17" t="s">
-        <v>563</v>
-      </c>
-      <c r="B88" s="1">
-        <v>2</v>
-      </c>
-      <c r="E88" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F88" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="H88" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="I88" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="J88" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="K88" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="L88">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M88" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="N88" s="1">
-        <v>64.59</v>
-      </c>
-      <c r="O88" s="1">
-        <v>1</v>
-      </c>
-      <c r="P88">
-        <f t="shared" si="1"/>
-        <v>64.59</v>
-      </c>
-      <c r="Q88">
-        <v>2</v>
-      </c>
-      <c r="R88">
-        <f t="shared" si="2"/>
-        <v>129.18</v>
-      </c>
-      <c r="S88" s="1"/>
-      <c r="T88" s="7"/>
     </row>
     <row r="89" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B89" s="1">
         <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>478</v>
+        <v>131</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>536</v>
+        <v>514</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>324</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="L89">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="M89" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="N89" s="1">
+        <v>2.5099999999999998</v>
+      </c>
       <c r="O89" s="1">
         <v>1</v>
       </c>
       <c r="P89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="Q89">
         <v>2</v>
       </c>
       <c r="R89">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="S89" s="1">
+        <v>6448208</v>
+      </c>
+      <c r="T89" s="7">
+        <v>42451</v>
       </c>
     </row>
     <row r="90" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>523</v>
+      <c r="A90" s="16" t="s">
+        <v>563</v>
       </c>
       <c r="B90" s="1">
-        <v>1</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="F90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F90" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>522</v>
+      <c r="H90" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="I90" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J90" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>565</v>
       </c>
       <c r="L90">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="M90" s="14" t="s">
+        <v>564</v>
       </c>
       <c r="N90" s="1">
-        <v>0</v>
+        <v>64.59</v>
       </c>
       <c r="O90" s="1">
         <v>1</v>
       </c>
       <c r="P90">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>64.59</v>
       </c>
       <c r="Q90">
         <v>2</v>
       </c>
       <c r="R90">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+        <v>129.18</v>
+      </c>
+      <c r="S90" s="1"/>
+      <c r="T90" s="7"/>
     </row>
     <row r="91" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -7012,19 +6995,16 @@
       <c r="F91" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="H91" s="1" t="s">
+        <v>536</v>
+      </c>
       <c r="I91" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="J91" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="K91" s="1"/>
       <c r="L91">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
       <c r="O91" s="1">
         <v>1</v>
       </c>
@@ -7039,65 +7019,51 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
     </row>
     <row r="92" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
       </c>
+      <c r="C92" s="1" t="s">
+        <v>535</v>
+      </c>
       <c r="E92" s="1" t="s">
-        <v>478</v>
+        <v>521</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L92">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M92" s="3" t="s">
-        <v>527</v>
-      </c>
       <c r="N92" s="1">
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="O92" s="1">
         <v>1</v>
       </c>
       <c r="P92">
         <f t="shared" si="1"/>
-        <v>2.34</v>
+        <v>0</v>
       </c>
       <c r="Q92">
         <v>2</v>
       </c>
       <c r="R92">
         <f t="shared" si="2"/>
-        <v>4.68</v>
-      </c>
-      <c r="S92" s="1">
-        <v>6390515</v>
-      </c>
-      <c r="T92" s="1">
-        <v>160208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B93" s="1">
         <v>1</v>
@@ -7114,82 +7080,86 @@
       <c r="J93" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="K93" s="1" t="s">
-        <v>529</v>
-      </c>
+      <c r="K93" s="1"/>
       <c r="L93">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M93" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="N93" s="1">
-        <v>16.989999999999998</v>
-      </c>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
       <c r="O93" s="1">
         <v>1</v>
       </c>
       <c r="P93">
         <f t="shared" si="1"/>
-        <v>16.989999999999998</v>
+        <v>0</v>
       </c>
       <c r="Q93">
         <v>2</v>
       </c>
       <c r="R93">
         <f t="shared" si="2"/>
-        <v>33.979999999999997</v>
-      </c>
-      <c r="S93" s="1">
-        <v>6390515</v>
-      </c>
-      <c r="T93" s="1">
-        <v>160208</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
     </row>
     <row r="94" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B94" s="1">
         <v>1</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="F94" s="1" t="s">
         <v>478</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>522</v>
+        <v>151</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>526</v>
       </c>
       <c r="L94">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
+      <c r="M94" s="3" t="s">
+        <v>527</v>
+      </c>
       <c r="N94" s="1">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="O94" s="1">
         <v>1</v>
       </c>
       <c r="P94">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="Q94">
         <v>2</v>
       </c>
       <c r="R94">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4.68</v>
+      </c>
+      <c r="S94" s="1">
+        <v>6390515</v>
+      </c>
+      <c r="T94" s="1">
+        <v>160208</v>
       </c>
     </row>
     <row r="95" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B95" s="1">
         <v>1</v>
@@ -7201,72 +7171,87 @@
         <v>478</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>461</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L95">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="N95" s="1">
-        <v>7.94</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="O95" s="1">
         <v>1</v>
       </c>
       <c r="P95">
         <f t="shared" si="1"/>
-        <v>7.94</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="Q95">
         <v>2</v>
       </c>
       <c r="R95">
         <f t="shared" si="2"/>
-        <v>15.88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33.979999999999997</v>
+      </c>
+      <c r="S95" s="1">
+        <v>6390515</v>
+      </c>
+      <c r="T95" s="1">
+        <v>160208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B96" s="1">
-        <v>2</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>478</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I96" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J96" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="K96" t="s">
-        <v>548</v>
+      <c r="I96" s="1" t="s">
+        <v>522</v>
       </c>
       <c r="L96">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M96" s="15" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0</v>
+      </c>
+      <c r="O96" s="1">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>2</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="B97" s="1">
         <v>1</v>
@@ -7277,26 +7262,43 @@
       <c r="F97" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I97" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J97" s="16" t="s">
+      <c r="I97" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J97" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="K97" t="s">
-        <v>550</v>
+      <c r="K97" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="L97">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="M97" s="15" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M97" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="N97" s="1">
+        <v>7.94</v>
+      </c>
+      <c r="O97" s="1">
+        <v>1</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="1"/>
+        <v>7.94</v>
+      </c>
+      <c r="Q97">
+        <v>2</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="2"/>
+        <v>15.88</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B98" s="1">
         <v>2</v>
@@ -7307,29 +7309,29 @@
       <c r="F98" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I98" s="16" t="s">
+      <c r="I98" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="J98" s="16" t="s">
+      <c r="J98" s="15" t="s">
         <v>461</v>
       </c>
       <c r="K98" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L98">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M98" s="15" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M98" s="14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B99" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>478</v>
@@ -7337,29 +7339,29 @@
       <c r="F99" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I99" s="16" t="s">
+      <c r="I99" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="J99" s="16" t="s">
+      <c r="J99" s="15" t="s">
         <v>461</v>
       </c>
       <c r="K99" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="L99">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="M99" s="15" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="M99" s="14" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B100" s="1">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>478</v>
@@ -7367,26 +7369,29 @@
       <c r="F100" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I100" s="16" t="s">
+      <c r="I100" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="J100" s="16" t="s">
+      <c r="J100" s="15" t="s">
         <v>461</v>
       </c>
       <c r="K100" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="L100">
         <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-      <c r="M100" s="15" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="M100" s="14" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>552</v>
+        <v>540</v>
+      </c>
+      <c r="B101" s="1">
+        <v>2</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>478</v>
@@ -7394,25 +7399,29 @@
       <c r="F101" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I101" s="16" t="s">
+      <c r="I101" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="J101" s="16" t="s">
+      <c r="J101" s="15" t="s">
         <v>461</v>
       </c>
       <c r="K101" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="L101">
-        <v>25</v>
-      </c>
-      <c r="M101" s="15" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="17" t="s">
-        <v>557</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="M101" s="14" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B102" s="1">
+        <v>100</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>478</v>
@@ -7420,100 +7429,155 @@
       <c r="F102" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="I102" s="16" t="s">
+      <c r="I102" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="J102" s="16" t="s">
+      <c r="J102" s="15" t="s">
         <v>461</v>
       </c>
       <c r="K102" t="s">
+        <v>545</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="M102" s="14" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I103" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J103" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="K103" t="s">
+        <v>554</v>
+      </c>
+      <c r="L103">
+        <v>25</v>
+      </c>
+      <c r="M103" s="14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I104" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J104" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="K104" t="s">
         <v>556</v>
       </c>
-      <c r="L102">
+      <c r="L104">
         <v>200</v>
       </c>
-      <c r="M102" s="15" t="s">
+      <c r="M104" s="14" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="17"/>
+    <row r="105" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="16" t="s">
+        <v>568</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="I1:I1004" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="I1:I1006" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="M27" r:id="rId1" location="9464K86" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M28" r:id="rId2" location="9464K361" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M29" r:id="rId3" location="9464K271" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M30" r:id="rId4" location="9464K281" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M31" r:id="rId5" location="9464K271" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M32" r:id="rId6" location="9464K41" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M33" r:id="rId7" location="1170N29" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M34" r:id="rId8" location="9464K511" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M35" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="M36" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="M37" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M38" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="M39" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="M40" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="M41" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M42" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="M43" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="M44" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="M45" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="M46" r:id="rId20" location="90145A878" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="M47" r:id="rId21" location="91771A055" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="M48" r:id="rId22" location="93235A079" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="M49" r:id="rId23" location="93235A076" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="M50" r:id="rId24" location="91430A003" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="M51" r:id="rId25" location="92010A001" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="M52" r:id="rId26" location="91771A040" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="M53" r:id="rId27" location="92855A610" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="M54" r:id="rId28" location="91292A126" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="M55" r:id="rId29" location="92210A148" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="M56" r:id="rId30" location="92210A108" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="M57" r:id="rId31" location="92210A114" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="M58" r:id="rId32" location="97345A104" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="M59" r:id="rId33" location="91979A408" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="M60" r:id="rId34" location="91979A408" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="M61" r:id="rId35" location="92196A081" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M62" r:id="rId36" location="92196A108" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="M63" r:id="rId37" location="92210A078" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="M64" r:id="rId38" location="92196A108" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="M65" r:id="rId39" location="92095A458" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="M66" r:id="rId40" location="92311A103" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="M67" r:id="rId41" location="92125A190" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="M68" r:id="rId42" location="5334A42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="M69" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="M70" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="M71" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="M72" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="M73" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="M74" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="M75" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="M76" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="M77" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="M78" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="M79" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="M80" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="M81" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="M82" r:id="rId56" location="57155K205" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="M83" r:id="rId57" location="1375K15" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="M84" r:id="rId58" location="1375K15" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="M86" r:id="rId59" location="7887K12" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="M87" r:id="rId60" location="7887K19" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="M92" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="M93" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="M95" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="M98" r:id="rId64" xr:uid="{BDA7DC6D-AF69-4871-99FA-98BD36A79732}"/>
-    <hyperlink ref="M99" r:id="rId65" xr:uid="{73F387BF-6A37-4D31-BB28-40DCC0177278}"/>
-    <hyperlink ref="M100" r:id="rId66" xr:uid="{73CB6BFE-5055-49F5-A34E-92DD59BE0FB4}"/>
-    <hyperlink ref="M96" r:id="rId67" xr:uid="{24A3E1CA-B2F3-4F81-8697-FC2F04ADE3E0}"/>
-    <hyperlink ref="M97" r:id="rId68" xr:uid="{34489014-437B-481E-AF31-92E361D34627}"/>
-    <hyperlink ref="M101" r:id="rId69" xr:uid="{14763EDC-C800-44F3-959B-34554BD9B2C2}"/>
-    <hyperlink ref="M102" r:id="rId70" xr:uid="{FEB20DD9-220D-43E6-8847-4BCDCF406B51}"/>
-    <hyperlink ref="M85" r:id="rId71" xr:uid="{707ED91A-B033-4DD9-9841-0AC61C0FFE91}"/>
-    <hyperlink ref="M88" r:id="rId72" xr:uid="{1BAEDE91-2F49-4676-B529-0A4ED65935F5}"/>
+    <hyperlink ref="M29" r:id="rId1" location="9464K86" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M30" r:id="rId2" location="9464K361" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M31" r:id="rId3" location="9464K271" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M32" r:id="rId4" location="9464K281" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M33" r:id="rId5" location="9464K271" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M34" r:id="rId6" location="9464K41" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M35" r:id="rId7" location="1170N29" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M36" r:id="rId8" location="9464K511" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M37" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M38" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M39" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M40" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M41" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M42" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="M43" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M44" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="M45" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="M46" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="M47" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M48" r:id="rId20" location="90145A878" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="M49" r:id="rId21" location="91771A055" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M50" r:id="rId22" location="93235A079" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="M51" r:id="rId23" location="93235A076" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="M52" r:id="rId24" location="91430A003" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="M53" r:id="rId25" location="92010A001" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="M54" r:id="rId26" location="91771A040" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="M55" r:id="rId27" location="92855A610" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="M56" r:id="rId28" location="91292A126" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="M57" r:id="rId29" location="92210A148" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="M58" r:id="rId30" location="92210A108" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="M59" r:id="rId31" location="92210A114" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="M60" r:id="rId32" location="97345A104" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="M61" r:id="rId33" location="91979A408" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M62" r:id="rId34" location="91979A408" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="M63" r:id="rId35" location="92196A081" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="M64" r:id="rId36" location="92196A108" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="M65" r:id="rId37" location="92210A078" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="M66" r:id="rId38" location="92196A108" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="M67" r:id="rId39" location="92095A458" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="M68" r:id="rId40" location="92311A103" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="M69" r:id="rId41" location="92125A190" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="M70" r:id="rId42" location="5334A42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="M71" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="M72" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="M73" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="M74" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="M75" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="M76" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="M77" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="M78" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="M79" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="M80" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="M81" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="M82" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="M83" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="M84" r:id="rId56" location="57155K205" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="M85" r:id="rId57" location="1375K15" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="M86" r:id="rId58" location="1375K15" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="M88" r:id="rId59" location="7887K12" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="M89" r:id="rId60" location="7887K19" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="M94" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="M95" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="M97" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="M100" r:id="rId64" xr:uid="{BDA7DC6D-AF69-4871-99FA-98BD36A79732}"/>
+    <hyperlink ref="M101" r:id="rId65" xr:uid="{73F387BF-6A37-4D31-BB28-40DCC0177278}"/>
+    <hyperlink ref="M102" r:id="rId66" xr:uid="{73CB6BFE-5055-49F5-A34E-92DD59BE0FB4}"/>
+    <hyperlink ref="M98" r:id="rId67" xr:uid="{24A3E1CA-B2F3-4F81-8697-FC2F04ADE3E0}"/>
+    <hyperlink ref="M99" r:id="rId68" xr:uid="{34489014-437B-481E-AF31-92E361D34627}"/>
+    <hyperlink ref="M103" r:id="rId69" xr:uid="{14763EDC-C800-44F3-959B-34554BD9B2C2}"/>
+    <hyperlink ref="M104" r:id="rId70" xr:uid="{FEB20DD9-220D-43E6-8847-4BCDCF406B51}"/>
+    <hyperlink ref="M87" r:id="rId71" xr:uid="{707ED91A-B033-4DD9-9841-0AC61C0FFE91}"/>
+    <hyperlink ref="M90" r:id="rId72" xr:uid="{1BAEDE91-2F49-4676-B529-0A4ED65935F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId73"/>
